--- a/params/hyperparameters.xlsx
+++ b/params/hyperparameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Sync\0_RUG_22_23\1_Deep_reinforcement_learning\Assignment\DRL-A1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Sync\0_RUG_22_23\1_Deep_reinforcement_learning\Assignment\DRL-A1\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6BE269-F3F7-43D0-AC80-7624D18D888A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A629849-AFB1-4319-B934-A1F4E2E85A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="3470" windowWidth="14120" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="6390" windowWidth="20500" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,10 +372,17 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -414,22 +421,22 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>1E-3</v>
+      </c>
+      <c r="D2">
         <v>0.1</v>
-      </c>
-      <c r="D2">
-        <v>1E-3</v>
       </c>
       <c r="E2">
         <v>0.99</v>
       </c>
       <c r="F2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I2">
         <v>2.5000000000000001E-4</v>
